--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:03:55+00:00</t>
+    <t>2025-12-18T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-goal-attente.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-goal-attente.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:46+00:00</t>
+    <t>2025-12-18T16:17:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Goal</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Goal|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>referenceProjetPerso</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-reference|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>pieceJointeAttente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>Goal.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1202,7 +1202,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-discriminator|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1343,7 +1343,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-attente-note-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-goal-attente-note-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1760,7 +1760,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1775,7 +1775,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="131.83984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.0546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
